--- a/Week07_Grading_Rubric.xlsx
+++ b/Week07_Grading_Rubric.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keithcherkauer/Documents/GitHub-Classroom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keithcherkauer/Documents/GitHub-Classroom/07 Graphical Analysis with Python-05-11-2020-03-27-07/gargeyavunnava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070CA56-A908-BA40-8F96-131557422114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F155DD-A5EA-4E41-B85A-54A569E80500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="12420" xr2:uid="{70B9C94D-AB40-4B01-A8E7-2F6A688A3993}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Does not meet expectations</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>correct format</t>
+  </si>
+  <si>
+    <t>genfromtxt cannot handle columns with mixed data types</t>
   </si>
 </sst>
 </file>
@@ -340,20 +343,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -366,8 +355,22 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D232-33DD-4953-BB28-3A406F3F691C}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -701,22 +704,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
@@ -760,22 +763,24 @@
         <v>20</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="20" t="b">
+      <c r="J3" s="16">
         <f>IF(B3,A4*B4*J$35,IF(D3,A4*D4*J$35,IF(F3,A4*F4*J$35,IF(H3,A4*H4*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="14"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -784,43 +789,45 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2">
         <v>0.45</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1">
         <v>0.9</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="20" t="b">
+      <c r="J5" s="16">
         <f>IF(B5,A6*B6*J$35,IF(D5,A6*D6*J$35,IF(F5,A6*F6*J$35,IF(H5,A6*H6*J$35))))</f>
-        <v>0</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="K5" s="12"/>
     </row>
@@ -831,20 +838,20 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2">
         <v>0.45</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1">
         <v>0.9</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -852,26 +859,28 @@
         <v>22</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="20" t="b">
+      <c r="J7" s="16">
         <f>IF(B7,A8*B8*J$35,IF(D7,A8*D8*J$35,IF(F7,A8*F8*J$35,IF(H7,A8*H8*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="14"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -880,47 +889,49 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="2">
         <v>0.45</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1">
         <v>0.9</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="20" t="b">
+      <c r="J9" s="16">
         <f>IF(B9,A10*B10*J$35,IF(D9,A10*D10*J$35,IF(F9,A10*F10*J$35,IF(H9,A10*H10*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14"/>
+        <v>5.4</v>
+      </c>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -929,47 +940,49 @@
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="2">
         <v>0.45</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="1">
         <v>0.9</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="20" t="b">
+      <c r="J11" s="16">
         <f>IF(B11,A12*B12*J$35,IF(D11,A12*D12*J$35,IF(F11,A12*F12*J$35,IF(H11,A12*H12*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="14"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -978,47 +991,49 @@
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="2">
         <v>0.45</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="1">
         <v>0.9</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="20" t="b">
+      <c r="J13" s="16">
         <f>IF(B13,A14*B14*J$35,IF(D13,A14*D14*J$35,IF(F13,A14*F14*J$35,IF(H13,A14*H14*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="14"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -1027,47 +1042,49 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="2">
         <v>0.45</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1">
         <v>0.9</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="20" t="b">
+      <c r="J15" s="16">
         <f>IF(B15,A16*B16*J$35,IF(D15,A16*D16*J$35,IF(F15,A16*F16*J$35,IF(H15,A16*H16*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="14"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
@@ -1076,45 +1093,47 @@
       <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="2">
         <v>0.45</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="1">
         <v>0.9</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="128" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="20" t="b">
+      <c r="J17" s="16">
         <f>IF(B17,A18*B18*J$35,IF(D17,A18*D18*J$35,IF(F17,A18*F18*J$35,IF(H17,A18*H18*J$35))))</f>
-        <v>0</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="K17" s="12"/>
     </row>
@@ -1125,20 +1144,20 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="2">
         <v>0.45</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="1">
         <v>0.9</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="21"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -1146,26 +1165,28 @@
         <v>44</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="20" t="b">
+      <c r="J19" s="16">
         <f>IF(B19,A20*B20*J$35,IF(D19,A20*D20*J$35,IF(F19,A20*F20*J$35,IF(H19,A20*H20*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -1174,47 +1195,49 @@
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="2">
         <v>0.45</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="1">
         <v>0.9</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="20" t="b">
+      <c r="J21" s="16">
         <f>IF(B21,A22*B22*J$35,IF(D21,A22*D22*J$35,IF(F21,A22*F22*J$35,IF(H21,A22*H22*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="14"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -1223,45 +1246,47 @@
       <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="2">
         <v>0.45</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="1">
         <v>0.9</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="20" t="b">
+      <c r="J23" s="16">
         <f>IF(B23,A24*B24*J$35,IF(D23,A24*D24*J$35,IF(F23,A24*F24*J$35,IF(H23,A24*H24*J$35))))</f>
-        <v>0</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="K23" s="12"/>
     </row>
@@ -1272,20 +1297,20 @@
       <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="2">
         <v>0.45</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="1">
         <v>0.9</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="21"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -1293,26 +1318,30 @@
         <v>28</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="20" t="b">
+      <c r="J25" s="16">
         <f>IF(B25,A26*B26*J$35,IF(D25,A26*D26*J$35,IF(F25,A26*F26*J$35,IF(H25,A26*H26*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="14"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
@@ -1321,47 +1350,49 @@
       <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="2">
         <v>0.45</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="1">
         <v>0.9</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="20" t="b">
+      <c r="J27" s="16">
         <f>IF(B27,A28*B28*J$35,IF(D27,A28*D28*J$35,IF(F27,A28*F28*J$35,IF(H27,A28*H28*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
@@ -1370,47 +1401,49 @@
       <c r="B28" s="1">
         <v>0</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="2">
         <v>0.45</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="1">
         <v>0.9</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="20" t="b">
+      <c r="J29" s="16">
         <f>IF(B29,A30*B30*J$35,IF(D29,A30*D30*J$35,IF(F29,A30*F30*J$35,IF(H29,A30*H30*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="14"/>
+        <v>5.4</v>
+      </c>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
@@ -1419,45 +1452,47 @@
       <c r="B30" s="1">
         <v>0</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="2">
         <v>0.45</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="1">
         <v>0.9</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="20" t="b">
+      <c r="J31" s="16">
         <f>IF(B31,A32*B32*J$35,IF(D31,A32*D32*J$35,IF(F31,A32*F32*J$35,IF(H31,A32*H32*J$35))))</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="14"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
@@ -1466,21 +1501,21 @@
       <c r="B32" s="1">
         <v>0</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="2">
         <v>0.45</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="1">
         <v>0.9</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1495,7 +1530,7 @@
       </c>
       <c r="J34" s="7">
         <f>SUM(J3:J32)</f>
-        <v>0</v>
+        <v>44.099999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -1509,17 +1544,70 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="91">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="H1:I1"/>
@@ -1536,70 +1624,17 @@
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
